--- a/Bristom Test Cases.xlsx
+++ b/Bristom Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Manual Testing\Bristom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF5205F-B27A-401F-9AB5-5F8ECF086D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8644FE-C6B2-4FEA-95F2-2108A8E0BF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="18" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="766">
   <si>
     <t>Test Cases</t>
   </si>
@@ -3745,6 +3745,9 @@
   </si>
   <si>
     <t>TC_ASM 074</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
   </si>
 </sst>
 </file>
@@ -4484,6 +4487,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4499,15 +4511,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4808,7 +4811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F49E34C-BFC8-4477-BDD9-4BC8D817EDF8}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="68" workbookViewId="0">
+    <sheetView topLeftCell="A75" zoomScale="68" workbookViewId="0">
       <selection activeCell="A76" sqref="A76:C80"/>
     </sheetView>
   </sheetViews>
@@ -4825,10 +4828,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="128"/>
       <c r="C1" s="22"/>
       <c r="D1" s="20"/>
       <c r="E1" s="22"/>
@@ -6730,11 +6733,11 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="132" t="s">
+      <c r="A76" s="124" t="s">
         <v>757</v>
       </c>
-      <c r="B76" s="133"/>
-      <c r="C76" s="134" t="s">
+      <c r="B76" s="125"/>
+      <c r="C76" s="126" t="s">
         <v>758</v>
       </c>
       <c r="D76" s="123"/>
@@ -6745,11 +6748,11 @@
       <c r="I76" s="90"/>
     </row>
     <row r="77" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="132" t="s">
+      <c r="A77" s="124" t="s">
         <v>759</v>
       </c>
-      <c r="B77" s="133"/>
-      <c r="C77" s="134" t="s">
+      <c r="B77" s="125"/>
+      <c r="C77" s="126" t="s">
         <v>760</v>
       </c>
       <c r="D77" s="123"/>
@@ -6760,11 +6763,11 @@
       <c r="I77" s="90"/>
     </row>
     <row r="78" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A78" s="132" t="s">
+      <c r="A78" s="124" t="s">
         <v>761</v>
       </c>
-      <c r="B78" s="133"/>
-      <c r="C78" s="134" t="s">
+      <c r="B78" s="125"/>
+      <c r="C78" s="126" t="s">
         <v>762</v>
       </c>
       <c r="D78" s="123"/>
@@ -6775,11 +6778,11 @@
       <c r="I78" s="90"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="132" t="s">
+      <c r="A79" s="124" t="s">
         <v>763</v>
       </c>
-      <c r="B79" s="133"/>
-      <c r="C79" s="134" t="s">
+      <c r="B79" s="125"/>
+      <c r="C79" s="126" t="s">
         <v>755</v>
       </c>
       <c r="D79" s="123"/>
@@ -6790,11 +6793,11 @@
       <c r="I79" s="90"/>
     </row>
     <row r="80" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="132" t="s">
+      <c r="A80" s="124" t="s">
         <v>764</v>
       </c>
-      <c r="B80" s="133"/>
-      <c r="C80" s="134" t="s">
+      <c r="B80" s="125"/>
+      <c r="C80" s="126" t="s">
         <v>756</v>
       </c>
       <c r="D80" s="123"/>
@@ -6805,10 +6808,10 @@
       <c r="I80" s="90"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="126" t="s">
+      <c r="A83" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="127"/>
+      <c r="B83" s="130"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
@@ -6846,10 +6849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84C1333-52F3-4A64-9341-0C52F61D6A9A}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6864,10 +6867,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="128"/>
       <c r="C1" s="22"/>
       <c r="D1" s="20"/>
       <c r="E1" s="22"/>
@@ -6926,7 +6929,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>7</v>
+        <v>765</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="20"/>
@@ -7252,83 +7255,6 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7360,10 +7286,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="128"/>
       <c r="C1" s="30"/>
       <c r="D1" s="20"/>
       <c r="E1" s="22"/>
@@ -7525,7 +7451,7 @@
       <c r="A11" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="131" t="s">
         <v>383</v>
       </c>
       <c r="C11" s="32" t="s">
@@ -7554,7 +7480,7 @@
       <c r="A12" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="132"/>
       <c r="C12" s="32" t="s">
         <v>389</v>
       </c>
@@ -7581,7 +7507,7 @@
       <c r="A13" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="B13" s="129"/>
+      <c r="B13" s="132"/>
       <c r="C13" s="32" t="s">
         <v>394</v>
       </c>
@@ -7608,7 +7534,7 @@
       <c r="A14" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="B14" s="129"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="38" t="s">
         <v>397</v>
       </c>
@@ -7635,7 +7561,7 @@
       <c r="A15" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="B15" s="129"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="36" t="s">
         <v>402</v>
       </c>
@@ -7662,7 +7588,7 @@
       <c r="A16" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="132"/>
       <c r="C16" s="29" t="s">
         <v>407</v>
       </c>
@@ -7689,7 +7615,7 @@
       <c r="A17" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="132"/>
       <c r="C17" s="29" t="s">
         <v>411</v>
       </c>
@@ -7716,7 +7642,7 @@
       <c r="A18" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="132"/>
       <c r="C18" s="29" t="s">
         <v>416</v>
       </c>
@@ -7743,7 +7669,7 @@
       <c r="A19" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="B19" s="129"/>
+      <c r="B19" s="132"/>
       <c r="C19" s="35" t="s">
         <v>421</v>
       </c>
@@ -7770,7 +7696,7 @@
       <c r="A20" s="31" t="s">
         <v>425</v>
       </c>
-      <c r="B20" s="129"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="26" t="s">
         <v>426</v>
       </c>
@@ -7797,7 +7723,7 @@
       <c r="A21" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="B21" s="129"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="26" t="s">
         <v>431</v>
       </c>
@@ -7824,7 +7750,7 @@
       <c r="A22" s="31" t="s">
         <v>433</v>
       </c>
-      <c r="B22" s="130"/>
+      <c r="B22" s="133"/>
       <c r="C22" s="26" t="s">
         <v>434</v>
       </c>
@@ -7859,10 +7785,10 @@
       <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="126" t="s">
+      <c r="A24" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="127"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="30"/>
       <c r="D24" s="20"/>
       <c r="E24" s="22"/>
@@ -7945,10 +7871,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="128"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="30"/>
@@ -8110,7 +8036,7 @@
       <c r="A11" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="134" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="32" t="s">
@@ -8139,7 +8065,7 @@
       <c r="A12" s="31" t="s">
         <v>466</v>
       </c>
-      <c r="B12" s="131"/>
+      <c r="B12" s="134"/>
       <c r="C12" s="32" t="s">
         <v>76</v>
       </c>
@@ -8166,7 +8092,7 @@
       <c r="A13" s="31" t="s">
         <v>468</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="32" t="s">
         <v>79</v>
       </c>
@@ -8201,10 +8127,10 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="127"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="30"/>
@@ -8289,10 +8215,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="128"/>
       <c r="C1" s="22"/>
       <c r="D1" s="20"/>
       <c r="E1" s="22"/>
@@ -9614,10 +9540,10 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="126" t="s">
+      <c r="A55" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="127"/>
+      <c r="B55" s="130"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
@@ -9673,10 +9599,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="128"/>
       <c r="C1" s="6"/>
       <c r="D1" s="20"/>
       <c r="E1" s="6"/>
@@ -9829,7 +9755,7 @@
       <c r="A11" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="131" t="s">
         <v>690</v>
       </c>
       <c r="C11" s="32" t="s">
@@ -9858,7 +9784,7 @@
       <c r="A12" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="132"/>
       <c r="C12" s="32" t="s">
         <v>444</v>
       </c>
@@ -9885,7 +9811,7 @@
       <c r="A13" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="B13" s="129"/>
+      <c r="B13" s="132"/>
       <c r="C13" s="52" t="s">
         <v>693</v>
       </c>
@@ -9912,7 +9838,7 @@
       <c r="A14" s="31" t="s">
         <v>697</v>
       </c>
-      <c r="B14" s="129"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="52" t="s">
         <v>698</v>
       </c>
@@ -9937,7 +9863,7 @@
       <c r="A15" s="31" t="s">
         <v>700</v>
       </c>
-      <c r="B15" s="129"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="52" t="s">
         <v>29</v>
       </c>
@@ -9964,7 +9890,7 @@
       <c r="A16" s="31" t="s">
         <v>701</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="132"/>
       <c r="C16" s="52" t="s">
         <v>29</v>
       </c>
@@ -9991,7 +9917,7 @@
       <c r="A17" s="31" t="s">
         <v>702</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="132"/>
       <c r="C17" s="52" t="s">
         <v>35</v>
       </c>
@@ -10018,7 +9944,7 @@
       <c r="A18" s="31" t="s">
         <v>703</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="132"/>
       <c r="C18" s="52" t="s">
         <v>39</v>
       </c>
@@ -10045,7 +9971,7 @@
       <c r="A19" s="31" t="s">
         <v>704</v>
       </c>
-      <c r="B19" s="129"/>
+      <c r="B19" s="132"/>
       <c r="C19" s="52" t="s">
         <v>42</v>
       </c>
@@ -10072,7 +9998,7 @@
       <c r="A20" s="31" t="s">
         <v>706</v>
       </c>
-      <c r="B20" s="129"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="52" t="s">
         <v>44</v>
       </c>
@@ -10099,7 +10025,7 @@
       <c r="A21" s="31" t="s">
         <v>707</v>
       </c>
-      <c r="B21" s="129"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="52" t="s">
         <v>47</v>
       </c>
@@ -10126,7 +10052,7 @@
       <c r="A22" s="31" t="s">
         <v>708</v>
       </c>
-      <c r="B22" s="129"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="52" t="s">
         <v>50</v>
       </c>
@@ -10153,7 +10079,7 @@
       <c r="A23" s="31" t="s">
         <v>709</v>
       </c>
-      <c r="B23" s="129"/>
+      <c r="B23" s="132"/>
       <c r="C23" s="52" t="s">
         <v>53</v>
       </c>
@@ -10180,7 +10106,7 @@
       <c r="A24" s="31" t="s">
         <v>710</v>
       </c>
-      <c r="B24" s="129"/>
+      <c r="B24" s="132"/>
       <c r="C24" s="52" t="s">
         <v>56</v>
       </c>
@@ -10207,7 +10133,7 @@
       <c r="A25" s="31" t="s">
         <v>711</v>
       </c>
-      <c r="B25" s="129"/>
+      <c r="B25" s="132"/>
       <c r="C25" s="52" t="s">
         <v>59</v>
       </c>
@@ -10234,7 +10160,7 @@
       <c r="A26" s="31" t="s">
         <v>712</v>
       </c>
-      <c r="B26" s="129"/>
+      <c r="B26" s="132"/>
       <c r="C26" s="52" t="s">
         <v>53</v>
       </c>
@@ -10261,7 +10187,7 @@
       <c r="A27" s="31" t="s">
         <v>713</v>
       </c>
-      <c r="B27" s="130"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="52" t="s">
         <v>64</v>
       </c>
@@ -10285,10 +10211,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="126" t="s">
+      <c r="A29" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="127"/>
+      <c r="B29" s="130"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
